--- a/Gewinne_pro_Produkt.xlsx
+++ b/Gewinne_pro_Produkt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Dropbox\Mein PC (LAPTOP-J5RO143S)\Desktop\Duales Studium\Uni Mannheim\Theoriephase\3.Semester\Fallstudie\Meilenstein 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\WordDocs\Studium\DHBW\3Semester\Fallstudie\Repo\FallstudieDHBW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A10441D0-1587-4E7E-A9ED-5AA815335B41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED45726-B38A-4CB3-88D8-FC6E5807FAF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{96FF97C2-5892-488A-B302-5B76BB8465E1}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{DA8C4B0D-DA17-4DB0-B1D0-9DF7F79D9CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,33 +33,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Bankprodukt</t>
   </si>
   <si>
+    <t>Versicherung</t>
+  </si>
+  <si>
+    <t>Altersvorsorge</t>
+  </si>
+  <si>
+    <t>Bausparvertrag</t>
+  </si>
+  <si>
+    <t>Depotkonto</t>
+  </si>
+  <si>
+    <t>Girokonto</t>
+  </si>
+  <si>
+    <t>Kredit</t>
+  </si>
+  <si>
+    <t>Tagesgeldkonto</t>
+  </si>
+  <si>
+    <t>Durchschnittlicher Gewinn: 283,6 /20 = 14,18</t>
+  </si>
+  <si>
+    <t>Prozentsatz</t>
+  </si>
+  <si>
+    <t>Neuabschluss von Girokonten: 197+1731-70= 1.858.000</t>
+  </si>
+  <si>
+    <t>Gewinn Jungbank: 296.000 €</t>
+  </si>
+  <si>
     <t>Gewinn pro Verkauf</t>
   </si>
   <si>
-    <t>Versicherung</t>
-  </si>
-  <si>
-    <t>Altersvorsorge</t>
-  </si>
-  <si>
-    <t>Bausparvertrag</t>
-  </si>
-  <si>
-    <t>Depotkonto</t>
-  </si>
-  <si>
-    <t>Girokonto</t>
-  </si>
-  <si>
-    <t>Kredit</t>
-  </si>
-  <si>
-    <t>Tagesgeldkonto</t>
+    <t>Gewinn gesamt</t>
+  </si>
+  <si>
+    <t>Jungbank: 9250</t>
+  </si>
+  <si>
+    <t>Jungbank: 36145</t>
+  </si>
+  <si>
+    <t>Jungbank: 8000</t>
+  </si>
+  <si>
+    <t>Jungbank: 1500</t>
+  </si>
+  <si>
+    <t>Jungbank: 3200</t>
+  </si>
+  <si>
+    <t>verkaufte Stückzahl pro GJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jungbank: 71.000 </t>
+  </si>
+  <si>
+    <t>Pro Monat</t>
+  </si>
+  <si>
+    <t>Jungbank: 0,05% der gesamten Bankenwelt in DE - 20% Gewinn aus dem Verkauf von Bankprodukten an Privatpersonen</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>k%</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -83,12 +134,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,9 +160,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -121,6 +181,319 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>97403</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>33793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>256955</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05BD469D-7C7D-41E6-AE50-B98F2D1F3B52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6922273" y="33793"/>
+          <a:ext cx="4930334" cy="2877047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>559783</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F584C277-38A7-4DBE-9941-002645452D17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10424160" y="0"/>
+          <a:ext cx="4270723" cy="3185160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>240293</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35FF9FDA-0043-4E45-BBA9-EC470ED40C0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5425440" y="3619501"/>
+          <a:ext cx="4195073" cy="3253740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>739140</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>111073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07B33A1-3A69-49D2-BCCE-07FFAC6A96A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10119360" y="3768673"/>
+          <a:ext cx="3665220" cy="2761667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>758940</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198787</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>507</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Grafik 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1B503CB-938A-436A-B865-F81ADD86D5B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5384280" y="7475220"/>
+          <a:ext cx="3402247" cy="2583687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>79215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>640751</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>122461</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Grafik 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B67C8E7-9C95-4861-B99C-4389BB7C49B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9395460" y="7577295"/>
+          <a:ext cx="3002951" cy="2420686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>249803</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>663</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409355</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>94753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Grafik 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{283594EF-0FD4-4161-BB09-0DBEBF697995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7074673" y="186193"/>
+          <a:ext cx="4930334" cy="2877047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,84 +792,326 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157DBB46-7C9B-43E2-9F6B-9DB88E603C35}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5F06A4-2C55-43F1-A2AF-5472F858051C}">
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2">
+        <f>B12*D2</f>
+        <v>326600</v>
+      </c>
+      <c r="C2">
+        <f>ROUND(B2/E2,2)</f>
+        <v>1633</v>
+      </c>
+      <c r="D2">
+        <v>0.23</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2">
+        <f>ROUND(E2/12,2)</f>
+        <v>16.670000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>8.51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3">
+        <f>B12*D3</f>
+        <v>184600</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C8" si="0">ROUND(B3/E3,2)</f>
+        <v>1230.67</v>
+      </c>
+      <c r="D3">
+        <v>0.13</v>
+      </c>
+      <c r="E3">
+        <v>150</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F8" si="1">ROUND(E3/12,2)</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>9.3699999999999992</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4">
+        <f>B12*D4</f>
+        <v>156200</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>195.25</v>
+      </c>
+      <c r="D4">
+        <v>0.11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>800</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5">
+        <f>B12*D5</f>
+        <v>170400</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>486.86</v>
+      </c>
+      <c r="D5">
+        <v>0.12</v>
+      </c>
+      <c r="E5" s="4">
+        <v>350</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>29.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6">
+        <f>B12*D6</f>
+        <v>71000</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>76.34</v>
+      </c>
+      <c r="D6">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="2">
+        <v>930</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7">
+        <f>B12*D7</f>
+        <v>454400</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>126.22</v>
+      </c>
+      <c r="D7">
+        <v>0.32</v>
+      </c>
+      <c r="E7">
+        <v>3600</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8">
+        <f>B12*D8</f>
+        <v>56800</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>177.5</v>
+      </c>
+      <c r="D8">
+        <v>0.04</v>
+      </c>
+      <c r="E8" s="2">
+        <v>320</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>26.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f>7100000/5</f>
+        <v>1420000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.05</v>
+      </c>
+      <c r="C17">
+        <f>B17*100</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0.32</v>
+      </c>
+      <c r="C18">
+        <f>C17+(B18*100)</f>
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>2.31</v>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.04</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:C23" si="2">C18+(B19*100)</f>
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.12</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="M20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.13</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0.23</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0.11</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="L57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>